--- a/templates/stock-holding-unit-upload-template.xlsx
+++ b/templates/stock-holding-unit-upload-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw-my.sharepoint.com/personal/shubhabratar_vmware_com/Documents/Rony's Files/Scaler MS Computer Science/Backend Project/Projects/MyStockPlanningApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/shubhabratar_omnissa_com/Documents/Rony's Files/Scaler MS Computer Science/Backend Project/Projects/MyStockPlanningApp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E308CA-BB4E-4FAF-966D-BE552468545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C6E308CA-BB4E-4FAF-966D-BE552468545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B0D3A5-A187-4689-8C47-2D07B809804F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9B2AC2-FD70-4F4D-9EEE-8F6266C04D7F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC9B2AC2-FD70-4F4D-9EEE-8F6266C04D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="StockHoldingUnit" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>stock_instrument_name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>purchased_quantity</t>
+  </si>
+  <si>
+    <t>owner_name</t>
   </si>
 </sst>
 </file>
@@ -83,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -250,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E1DD9A-539A-48B7-8C7A-361CE806588D}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -408,23 +410,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
